--- a/sampleBlackList.xlsx
+++ b/sampleBlackList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weisifan/Documents/wild3h.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F99C86-CC66-844A-BA9B-F77823F0DA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A58F187-5C16-E74A-A430-FE0E7A3175CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="700" windowWidth="26040" windowHeight="16260" xr2:uid="{C8172699-86D1-1F4D-AC7C-D8414D6E75FD}"/>
+    <workbookView xWindow="500" yWindow="700" windowWidth="26040" windowHeight="15060" xr2:uid="{C8172699-86D1-1F4D-AC7C-D8414D6E75FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://www.baidu.com</t>
+    <t>www.baidu.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +423,7 @@
   <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
